--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -1295,40 +1295,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="158.0859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="158.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="84.6796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="68.15625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -462,7 +462,7 @@
   </si>
   <si>
     <t>Organization label locations in registries, need to keep track of those.
-登記内の組織ラベルの場所。これらを追跡する必要があります。</t>
+登記内の組織ラベルの場所。これらを追跡する必要がある。</t>
   </si>
   <si>
     <t>.id</t>
@@ -478,7 +478,7 @@
   </si>
   <si>
     <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.
-statusプロパティは、operationStatus、またはロケーションに構成されている場合はスケジュール/スロットによってカバーされる可能性がある現在の値ではなく、リソースの一般的な可用性をカバーします。</t>
+statusプロパティは、operationStatus、またはロケーションに構成されている場合はスケジュール/スロットによってカバーされる可能性がある現在の値ではなく、リソースの一般的な可用性をカバーする。</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
@@ -511,11 +511,11 @@
   </si>
   <si>
     <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.
-稼働状況には、ベッドに最も関連する稼働値が含まれます（ただし、隔離ユニット/透析椅子などの部屋/ユニット/椅子などにも適用できます）。これは通常、汚染、ハウスキーピング、およびメンテナンスなどの他のアクティビティなどの概念をカバーしています。</t>
+稼働状況には、ベッドに最も関連する稼働値が含まれる（ただし、隔離ユニット/透析椅子などの部屋/ユニット/椅子などにも適用できる）。これは通常、汚染、ハウスキーピング、およびメンテナンスなどの他のアクティビティなどの概念をカバーしている。</t>
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できます。詳細については、HL7 v3コア原則を参照してください。</t>
+コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照してください。</t>
   </si>
   <si>
     <t>The operational status if the location (where typically a bed/room).</t>
@@ -560,8 +560,8 @@
   <si>
     <t>Over time locations and organizations go through many changes and can be known by different names.
 For searching knowing previous names that the location was known by can be very useful.
-「時間の経過とともに、場所や組織は多くの変化を遂げ、さまざまな名前で知られるようになります。
-場所が知られている以前の名前を知っていることを検索することは非常に役に立ちます。」</t>
+「時間の経過とともに、場所や組織は多くの変化を遂げ、さまざまな名前で知られるようになる。
+場所が知られている以前の名前を知っていることを検索することは非常に役に立つ。」</t>
   </si>
   <si>
     <t>Location.description</t>
@@ -571,7 +571,7 @@
   </si>
   <si>
     <t>Description of the Location, which helps in finding or referencing the place.
-場所の説明。場所の検索や参照に役立ちます。</t>
+場所の説明。場所の検索や参照に役立つ。</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
@@ -579,7 +579,7 @@
   </si>
   <si>
     <t>Humans need additional information to verify a correct location has been identified.
-人間は、正しい場所が特定されたことを確認するために追加情報を必要とします。</t>
+人間は、正しい場所が特定されたことを確認するために追加情報を必要とする。</t>
   </si>
   <si>
     <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
@@ -592,15 +592,15 @@
   </si>
   <si>
     <t>Indicates whether a resource instance represents a specific location or a class of locations.
-リソースインスタンスが特定の場所を表すか、場所のクラスを表すかを示します。</t>
+リソースインスタンスが特定の場所を表すか、場所のクラスを表すかを示す。</t>
   </si>
   <si>
     <t>This is labeled as a modifier because whether or not the location is a class of locations changes how it can be used and understood.
-ロケーションがロケーションのクラスであるかどうかによって、その使用方法と理解方法が変わるため、これは修飾子としてラベル付けされます。</t>
+ロケーションがロケーションのクラスであるかどうかによって、その使用方法と理解方法が変わるため、これは修飾子としてラベル付けされる。</t>
   </si>
   <si>
     <t>When using a Location resource for scheduling or orders, we need to be able to refer to a class of Locations instead of a specific Location.
-スケジュールや順番に場所リソースを使用する場合、特定の場所ではなく場所のクラスを参照できる必要があります。</t>
+スケジュールや順番に場所リソースを使用する場合、特定の場所ではなく場所のクラスを参照できる必要がある。</t>
   </si>
   <si>
     <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
@@ -626,11 +626,11 @@
   </si>
   <si>
     <t>Indicates the type of function performed at the location.
-その場所で実行される機能のタイプを示します。</t>
+その場所で実行される機能のタイプを示す。</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべての用語の使用がこの一般的なパターンに適合するわけではありません。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と前後の調整間の関係を管理するための独自の構造を提供する必要があります。</t>
+すべての用語の使用がこの一般的なパターンに適合するわけではありません。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と前後の調整間の関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>extensible</t>
@@ -656,7 +656,7 @@
   </si>
   <si>
     <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.
-その場所で利用可能な通信機器の連絡先。これには、電話番号、ファックス番号、携帯電話番号、電子メールアドレス、ウェブサイトなどが含まれます。</t>
+その場所で利用可能な通信機器の連絡先。これには、電話番号、ファックス番号、携帯電話番号、電子メールアドレス、ウェブサイトなどが含まれる。</t>
   </si>
   <si>
     <t>.telecom</t>
@@ -677,11 +677,11 @@
   </si>
   <si>
     <t>Additional addresses should be recorded using another instance of the Location resource, or via the Organization.
-追加のアドレスは、Location リソースの別のインスタンスを使用して記録するか、Organization を介して記録する必要があります。</t>
+追加のアドレスは、Location リソースの別のインスタンスを使用して記録するか、Organization を介して記録する必要がある。</t>
   </si>
   <si>
     <t>If locations can be visited, we need to keep track of their address.
-場所が訪問できる場合は、住所を把握しておく必要があります。</t>
+場所が訪問できる場合は、住所を把握しておく必要がある。</t>
   </si>
   <si>
     <t>.addr</t>
@@ -702,7 +702,7 @@
   </si>
   <si>
     <t>For purposes of showing relevant locations in queries, we need to categorize locations.
-クエリで関連する場所を表示するためには、場所を分類する必要があります。</t>
+クエリで関連する場所を表示するためには、場所を分類する必要がある。</t>
   </si>
   <si>
     <t>example</t>
@@ -732,7 +732,7 @@
   </si>
   <si>
     <t>For mobile applications and automated route-finding knowing the exact location of the Location is required.
-モバイルアプリケーションや自動化されたルート検索では、位置情報の正確な位置を知る必要があります。</t>
+モバイルアプリケーションや自動化されたルート検索では、位置情報の正確な位置を知る必要がある。</t>
   </si>
   <si>
     <t>.playingEntity [classCode=PLC determinerCode=INSTANCE].positionText</t>
@@ -832,11 +832,11 @@
   </si>
   <si>
     <t>This can also be used as the part of the organization hierarchy where this location provides services. These services can be defined through the HealthcareService resource.
-これは、この場所がサービスを提供する組織階層の一部として使用することもできます。これらのサービスは、HealthcareServiceリソースを介して定義することができます。</t>
+これは、この場所がサービスを提供する組織階層の一部として使用することもできる。これらのサービスは、HealthcareServiceリソースを介して定義することができる。</t>
   </si>
   <si>
     <t>Need to know who manages the location.
-場所を管理している人を知る必要があります。</t>
+場所を管理している人を知る必要がある。</t>
   </si>
   <si>
     <t>.scopingEntity[classCode=ORG determinerKind=INSTANCE]</t>
@@ -870,7 +870,7 @@
     <t>Location.hoursOfOperation</t>
   </si>
   <si>
-    <t>What days/times during a week is this location usually open / この場所は通常、1週間のうち何日/時間帯に営業しています。</t>
+    <t>What days/times during a week is this location usually open / この場所は通常、1週間のうち何日/時間帯に営業している。</t>
   </si>
   <si>
     <t>What days/times during a week is this location usually open.
@@ -902,7 +902,7 @@
   </si>
   <si>
     <t>Indicates which days of the week are available between the start and end Times.
-開始時刻と終了時刻の間に利用可能な曜日を示します。</t>
+開始時刻と終了時刻の間に利用可能な曜日を示す。</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
@@ -922,11 +922,11 @@
 </t>
   </si>
   <si>
-    <t>The Location is open all day / その場所は終日営業しています</t>
+    <t>The Location is open all day / その場所は終日営業している</t>
   </si>
   <si>
     <t>The Location is open all day.
-その場所は終日営業しています。</t>
+その場所は終日営業している。</t>
   </si>
   <si>
     <t>Location.hoursOfOperation.openingTime</t>
@@ -979,7 +979,7 @@
   </si>
   <si>
     <t>Organizations may have different systems at different locations that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.
-組織は、さまざまなサービスを提供するさまざまな場所に異なるシステムを持っている可能性があり、それらに接続する方法や目的のための技術的な接続の詳細を定義できる必要があります。</t>
+組織は、さまざまなサービスを提供するさまざまな場所に異なるシステムを持っている可能性があり、それらに接続する方法や目的のための技術的な接続の詳細を定義できる必要がある。</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -482,7 +482,7 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列はサイズが1MBを超えてはならないことに注意してください</t>
+FHIR文字列はサイズが1MBを超えてはならないことに注意すること</t>
   </si>
   <si>
     <t>required</t>
@@ -515,7 +515,7 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照してください。</t>
+コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照すること。</t>
   </si>
   <si>
     <t>The operational status if the location (where typically a bed/room).</t>
@@ -534,11 +534,11 @@
   </si>
   <si>
     <t>Name of the location as used by humans. Does not need to be unique.
-人間が使用する場所の名前。一意である必要はありません。</t>
+人間が使用する場所の名前。一意である必要はない。</t>
   </si>
   <si>
     <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.
-場所の名前が変更された場合は、古い名前をエイリアス列に入力して、検索で検索できるようにすることを検討してください。</t>
+場所の名前が変更された場合は、古い名前をエイリアス列に入力して、検索で検索できるようにすることを検討すべきである。</t>
   </si>
   <si>
     <t>.name</t>
@@ -555,7 +555,7 @@
   </si>
   <si>
     <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the location.
-エイリアス/歴史的な名前に関連付けられた日付はありません。これは、名前がいつ使用されたかを追跡するためではなく、古い名前でも場所を特定できるように検索を支援するためのものです。</t>
+エイリアス/歴史的な名前に関連付けられた日付はない。これは、名前がいつ使用されたかを追跡するためではなく、古い名前でも場所を特定できるように検索を支援するためのものである。</t>
   </si>
   <si>
     <t>Over time locations and organizations go through many changes and can be known by different names.
@@ -575,7 +575,7 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列はサイズが1MBを超えてはならないことに注意してください</t>
+FHIR文字列はサイズが1MBを超えてはならないことに注意すること</t>
   </si>
   <si>
     <t>Humans need additional information to verify a correct location has been identified.
@@ -630,7 +630,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべての用語の使用がこの一般的なパターンに適合するわけではありません。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と前後の調整間の関係を管理するための独自の構造を提供する必要がある。</t>
+すべての用語の使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と前後の調整間の関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>extensible</t>
@@ -791,7 +791,7 @@
   </si>
   <si>
     <t>Do not use an IEEE type floating point type, instead use something that works like a true decimal, with inbuilt precision (e.g. Java BigInteger)
-IEEE型の浮動小数点型は使用せず、真の10進数のように動作し、精度が組み込まれているものを使用してください（例：JavaのBigInteger）。</t>
+IEEE型の浮動小数点型は使用せず、真の10進数のように動作し、精度が組み込まれているものを使用すること（例：JavaのBigInteger）。</t>
   </si>
   <si>
     <t>(RIM Opted not to map the sub-elements of GPS location, is now an OBS)</t>
@@ -906,7 +906,7 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列のサイズは1MBを超えてはならないことに注意してください。</t>
+FHIR文字列のサイズは1MBを超えてはならないことに注意すること。</t>
   </si>
   <si>
     <t>The days of the week.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -253,8 +253,8 @@
 サービスが提供され、リソースとそれに関わる人たちが存在する物理的な場所の詳細情報と位置情報。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -273,13 +273,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -292,16 +292,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -312,13 +312,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -331,19 +331,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -363,13 +363,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -389,13 +389,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -415,33 +415,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -488,7 +489,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Indicates whether the location is still in use.</t>
+    <t>場所がまだ使用されているかどうかを示します。 / Indicates whether the location is still in use.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
@@ -518,7 +519,7 @@
 コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照すること。</t>
   </si>
   <si>
-    <t>The operational status if the location (where typically a bed/room).</t>
+    <t>場所（通常はベッド/部屋）の場合の運用ステータス。 / The operational status if the location (where typically a bed/room).</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
@@ -603,7 +604,7 @@
 スケジュールや順番に場所リソースを使用する場合、特定の場所ではなく場所のクラスを参照できる必要がある。</t>
   </si>
   <si>
-    <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
+    <t>リソースインスタンスが特定の場所または場所のクラスを表すかどうかを示します。 / Indicates whether a resource instance represents a specific location or a class of locations.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-mode|4.0.1</t>
@@ -636,7 +637,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Indicates the type of function performed at the location.</t>
+    <t>場所で実行される機能のタイプを示します。 / Indicates the type of function performed at the location.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
@@ -708,7 +709,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Physical form of the location.</t>
+    <t>場所の物理的な形。 / Physical form of the location.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
@@ -741,10 +742,10 @@
     <t>Location.position.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -753,7 +754,7 @@
     <t>Location.position.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -766,10 +767,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -909,7 +911,7 @@
 FHIR文字列のサイズは1MBを超えてはならないことに注意すること。</t>
   </si>
   <si>
-    <t>The days of the week.</t>
+    <t>曜日。 / The days of the week.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
@@ -1318,7 +1320,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="84.6796875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="128.26953125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -253,8 +253,8 @@
 サービスが提供され、リソースとそれに関わる人たちが存在する物理的な場所の詳細情報と位置情報。</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -273,13 +273,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -292,16 +292,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -312,13 +312,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -331,19 +331,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -363,13 +363,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -389,13 +389,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -415,34 +415,33 @@
 </t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -489,7 +488,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>場所がまだ使用されているかどうかを示します。 / Indicates whether the location is still in use.</t>
+    <t>Indicates whether the location is still in use.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
@@ -519,7 +518,7 @@
 コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照すること。</t>
   </si>
   <si>
-    <t>場所（通常はベッド/部屋）の場合の運用ステータス。 / The operational status if the location (where typically a bed/room).</t>
+    <t>The operational status if the location (where typically a bed/room).</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
@@ -604,7 +603,7 @@
 スケジュールや順番に場所リソースを使用する場合、特定の場所ではなく場所のクラスを参照できる必要がある。</t>
   </si>
   <si>
-    <t>リソースインスタンスが特定の場所または場所のクラスを表すかどうかを示します。 / Indicates whether a resource instance represents a specific location or a class of locations.</t>
+    <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-mode|4.0.1</t>
@@ -637,7 +636,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>場所で実行される機能のタイプを示します。 / Indicates the type of function performed at the location.</t>
+    <t>Indicates the type of function performed at the location.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
@@ -709,7 +708,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>場所の物理的な形。 / Physical form of the location.</t>
+    <t>Physical form of the location.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
@@ -742,10 +741,10 @@
     <t>Location.position.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -754,7 +753,7 @@
     <t>Location.position.extension</t>
   </si>
   <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -767,11 +766,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -911,7 +909,7 @@
 FHIR文字列のサイズは1MBを超えてはならないことに注意すること。</t>
   </si>
   <si>
-    <t>曜日。 / The days of the week.</t>
+    <t>The days of the week.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
@@ -1320,7 +1318,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="128.26953125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="84.6796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -820,7 +820,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -845,7 +845,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
 </t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -856,7 +856,7 @@
 この場所が物理的に存在するもう一つの場所。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="294">
   <si>
     <t>Property</t>
   </si>
@@ -572,10 +572,6 @@
   <si>
     <t>Description of the Location, which helps in finding or referencing the place.
 場所の説明。場所の検索や参照に役立つ。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列はサイズが1MBを超えてはならないことに注意すること</t>
   </si>
   <si>
     <t>Humans need additional information to verify a correct location has been identified.
@@ -2951,10 +2947,10 @@
         <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3018,7 +3014,7 @@
         <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3026,7 +3022,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3052,16 +3048,16 @@
         <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3089,11 +3085,11 @@
         <v>150</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3110,7 +3106,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3125,15 +3121,15 @@
         <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3156,16 +3152,16 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3191,14 +3187,14 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3215,7 +3211,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3230,15 +3226,15 @@
         <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3261,13 +3257,13 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3318,7 +3314,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3333,7 +3329,7 @@
         <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3341,7 +3337,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3364,19 +3360,19 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3425,7 +3421,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3440,7 +3436,7 @@
         <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3448,7 +3444,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3471,19 +3467,19 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -3508,14 +3504,14 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3532,7 +3528,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3547,15 +3543,15 @@
         <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3578,17 +3574,17 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3637,7 +3633,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3652,7 +3648,7 @@
         <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -3660,7 +3656,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3686,10 +3682,10 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3740,7 +3736,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3763,7 +3759,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3792,7 +3788,7 @@
         <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>131</v>
@@ -3845,7 +3841,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3868,11 +3864,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3894,10 +3890,10 @@
         <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>131</v>
@@ -3952,7 +3948,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3975,7 +3971,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3998,16 +3994,16 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4057,7 +4053,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>82</v>
@@ -4072,7 +4068,7 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4080,7 +4076,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4103,16 +4099,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4162,7 +4158,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>82</v>
@@ -4177,7 +4173,7 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4185,7 +4181,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4208,16 +4204,16 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4267,7 +4263,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4282,7 +4278,7 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4290,7 +4286,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4313,19 +4309,19 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4374,7 +4370,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4389,7 +4385,7 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4397,7 +4393,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4420,19 +4416,19 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4481,7 +4477,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4496,7 +4492,7 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4504,7 +4500,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4527,16 +4523,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4586,7 +4582,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4601,7 +4597,7 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4609,7 +4605,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4635,10 +4631,10 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4689,7 +4685,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4712,7 +4708,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4741,7 +4737,7 @@
         <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>131</v>
@@ -4794,7 +4790,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4817,11 +4813,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4843,10 +4839,10 @@
         <v>128</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>131</v>
@@ -4901,7 +4897,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -4924,7 +4920,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4950,13 +4946,13 @@
         <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4985,11 +4981,11 @@
         <v>150</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5006,7 +5002,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5021,7 +5017,7 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5029,7 +5025,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5052,13 +5048,13 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5109,7 +5105,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5124,7 +5120,7 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5132,7 +5128,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5155,13 +5151,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5212,7 +5208,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5227,7 +5223,7 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5235,7 +5231,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5258,13 +5254,13 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5315,7 +5311,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5330,7 +5326,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5338,7 +5334,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5364,10 +5360,10 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5418,7 +5414,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5441,7 +5437,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5464,19 +5460,19 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -5525,7 +5521,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="295">
   <si>
     <t>Property</t>
   </si>
@@ -269,265 +269,269 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Location.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Location.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Location.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Location.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Location.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Location.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Location.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Location.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique code or number identifying the location to its users / ユーザーに場所を特定する一意のコードまたは番号</t>
+  </si>
+  <si>
+    <t>Unique code or number identifying the location to its users.
+ユーザーに場所を特定する一意のコードまたは番号</t>
+  </si>
+  <si>
+    <t>Organization label locations in registries, need to keep track of those.
+登記内の組織ラベルの場所。これらを追跡する必要がある。</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Location.status</t>
+  </si>
+  <si>
+    <t>active | suspended | inactive / アクティブ|中断|非アクティブ</t>
+  </si>
+  <si>
+    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.
+statusプロパティは、operationStatus、またはロケーションに構成されている場合はスケジュール/スロットによってカバーされる可能性がある現在の値ではなく、リソースの一般的な可用性をカバーする。</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
+FHIR文字列はサイズが1MBを超えてはならないことに注意すること</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Indicates whether the location is still in use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Location.operationalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>The operational status of the location (typically only for a bed/room) / ロケーションの運用ステータス（通常、ベッド/部屋のみ）</t>
+  </si>
+  <si>
+    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.
+稼働状況には、ベッドに最も関連する稼働値が含まれる（ただし、隔離ユニット/透析椅子などの部屋/ユニット/椅子などにも適用できる）。これは通常、汚染、ハウスキーピング、およびメンテナンスなどの他のアクティビティなどの概念をカバーしている。</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
+コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照すること。</t>
+  </si>
+  <si>
+    <t>The operational status if the location (where typically a bed/room).</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Location.name</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Location.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Location.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Location.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Location.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Location.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Location.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Location.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Location.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Unique code or number identifying the location to its users / ユーザーに場所を特定する一意のコードまたは番号</t>
-  </si>
-  <si>
-    <t>Unique code or number identifying the location to its users.
-ユーザーに場所を特定する一意のコードまたは番号</t>
-  </si>
-  <si>
-    <t>Organization label locations in registries, need to keep track of those.
-登記内の組織ラベルの場所。これらを追跡する必要がある。</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Location.status</t>
-  </si>
-  <si>
-    <t>active | suspended | inactive / アクティブ|中断|非アクティブ</t>
-  </si>
-  <si>
-    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.
-statusプロパティは、operationStatus、またはロケーションに構成されている場合はスケジュール/スロットによってカバーされる可能性がある現在の値ではなく、リソースの一般的な可用性をカバーする。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列はサイズが1MBを超えてはならないことに注意すること</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Indicates whether the location is still in use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Location.operationalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>The operational status of the location (typically only for a bed/room) / ロケーションの運用ステータス（通常、ベッド/部屋のみ）</t>
-  </si>
-  <si>
-    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.
-稼働状況には、ベッドに最も関連する稼働値が含まれる（ただし、隔離ユニット/透析椅子などの部屋/ユニット/椅子などにも適用できる）。これは通常、汚染、ハウスキーピング、およびメンテナンスなどの他のアクティビティなどの概念をカバーしている。</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照すること。</t>
-  </si>
-  <si>
-    <t>The operational status if the location (where typically a bed/room).</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Location.name</t>
   </si>
   <si>
     <t>Name of the location as used by humans / 人間が使用する場所の名前</t>
@@ -2726,16 +2730,16 @@
         <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2800,7 +2804,7 @@
         <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
@@ -2808,7 +2812,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2831,19 +2835,19 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -2892,7 +2896,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2907,7 +2911,7 @@
         <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
@@ -2915,7 +2919,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2938,19 +2942,19 @@
         <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>149</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -2999,7 +3003,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3014,7 +3018,7 @@
         <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3022,7 +3026,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3048,16 +3052,16 @@
         <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3085,10 +3089,10 @@
         <v>150</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
@@ -3106,7 +3110,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3121,15 +3125,15 @@
         <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3152,16 +3156,16 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3187,13 +3191,13 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -3211,7 +3215,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3226,15 +3230,15 @@
         <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3257,13 +3261,13 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3314,7 +3318,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3329,7 +3333,7 @@
         <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3337,7 +3341,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3360,19 +3364,19 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3421,7 +3425,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3436,7 +3440,7 @@
         <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3444,7 +3448,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3467,19 +3471,19 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -3504,13 +3508,13 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -3528,7 +3532,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3543,15 +3547,15 @@
         <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3574,17 +3578,17 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3633,7 +3637,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3648,7 +3652,7 @@
         <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -3656,7 +3660,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3679,13 +3683,13 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3736,7 +3740,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3759,7 +3763,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3788,7 +3792,7 @@
         <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>131</v>
@@ -3841,7 +3845,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3864,11 +3868,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3890,10 +3894,10 @@
         <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>131</v>
@@ -3948,7 +3952,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3971,7 +3975,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3994,16 +3998,16 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4053,7 +4057,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>82</v>
@@ -4068,7 +4072,7 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4076,7 +4080,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4099,16 +4103,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4158,7 +4162,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>82</v>
@@ -4173,7 +4177,7 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4181,7 +4185,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4204,16 +4208,16 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4263,7 +4267,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4278,7 +4282,7 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4286,7 +4290,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4309,19 +4313,19 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4370,7 +4374,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4385,7 +4389,7 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4393,7 +4397,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4416,19 +4420,19 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4477,7 +4481,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4492,7 +4496,7 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4500,7 +4504,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4523,16 +4527,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4582,7 +4586,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4597,7 +4601,7 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4605,7 +4609,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4628,13 +4632,13 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4685,7 +4689,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4708,7 +4712,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4737,7 +4741,7 @@
         <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>131</v>
@@ -4790,7 +4794,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4813,11 +4817,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4839,10 +4843,10 @@
         <v>128</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>131</v>
@@ -4897,7 +4901,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -4920,7 +4924,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4946,13 +4950,13 @@
         <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4981,10 +4985,10 @@
         <v>150</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -5002,7 +5006,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5017,7 +5021,7 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5025,7 +5029,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5048,13 +5052,13 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5105,7 +5109,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5120,7 +5124,7 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5128,7 +5132,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5151,13 +5155,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5208,7 +5212,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5223,7 +5227,7 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5231,7 +5235,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5254,13 +5258,13 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5311,7 +5315,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5326,7 +5330,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5334,7 +5338,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5357,13 +5361,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5414,7 +5418,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5437,7 +5441,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5460,19 +5464,19 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -5521,7 +5525,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -454,11 +454,11 @@
 </t>
   </si>
   <si>
-    <t>Unique code or number identifying the location to its users / ユーザーに場所を特定する一意のコードまたは番号</t>
+    <t>Unique code or number identifying the location to its users / ユーザに場所を特定する一意のコードまたは番号</t>
   </si>
   <si>
     <t>Unique code or number identifying the location to its users.
-ユーザーに場所を特定する一意のコードまたは番号</t>
+ユーザに場所を特定する一意のコードまたは番号</t>
   </si>
   <si>
     <t>Organization label locations in registries, need to keep track of those.

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -870,7 +870,7 @@
     <t>Location.hoursOfOperation</t>
   </si>
   <si>
-    <t>What days/times during a week is this location usually open / この場所は通常、1週間のうち何日/時間帯に営業している。</t>
+    <t>What days/times during a week is this location usually open / この場所は通常、1週間のうち何日/時間帯に営業している</t>
   </si>
   <si>
     <t>What days/times during a week is this location usually open.
@@ -956,7 +956,7 @@
     <t>Location.availabilityExceptions</t>
   </si>
   <si>
-    <t>Description of availability exceptions / 利用可能の例外についての説明。</t>
+    <t>Description of availability exceptions / 利用可能の例外についての説明</t>
   </si>
   <si>
     <t>A description of when the locations opening ours are different to normal, e.g. public holiday availability. Succinctly describing all possible exceptions to normal site availability as detailed in the opening hours Times.

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -251,10 +254,6 @@
   <si>
     <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.
 サービスが提供され、リソースとそれに関わる人たちが存在する物理的な場所の詳細情報と位置情報。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -1228,55 +1227,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1336,218 +1335,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -1556,20 +1555,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>83</v>
@@ -1588,71 +1587,71 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -1661,20 +1660,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>83</v>
@@ -1691,71 +1690,71 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1764,17 +1763,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>83</v>
@@ -1796,71 +1795,71 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1869,23 +1868,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>102</v>
@@ -1901,26 +1900,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>106</v>
@@ -1932,40 +1931,40 @@
         <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1978,19 +1977,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>112</v>
@@ -2006,62 +2005,62 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>94</v>
@@ -2070,7 +2069,7 @@
         <v>117</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -2083,19 +2082,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>120</v>
@@ -2111,71 +2110,71 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -2188,19 +2187,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>128</v>
@@ -2216,62 +2215,62 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>133</v>
@@ -2280,7 +2279,7 @@
         <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2293,19 +2292,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>128</v>
@@ -2323,62 +2322,62 @@
         <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>133</v>
@@ -2387,7 +2386,7 @@
         <v>125</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -2396,20 +2395,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>83</v>
@@ -2428,62 +2427,62 @@
         <v>143</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>94</v>
@@ -2501,17 +2500,17 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>83</v>
@@ -2533,26 +2532,26 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>150</v>
@@ -2564,31 +2563,31 @@
         <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>94</v>
@@ -2606,20 +2605,20 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>83</v>
@@ -2638,26 +2637,26 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>106</v>
@@ -2669,31 +2668,31 @@
         <v>161</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>94</v>
@@ -2711,20 +2710,20 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>83</v>
@@ -2743,62 +2742,62 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>94</v>
@@ -2807,7 +2806,7 @@
         <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2816,23 +2815,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>164</v>
@@ -2850,62 +2849,62 @@
         <v>173</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>94</v>
@@ -2914,7 +2913,7 @@
         <v>168</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2923,20 +2922,20 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>83</v>
@@ -2957,62 +2956,62 @@
         <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>174</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>94</v>
@@ -3021,7 +3020,7 @@
         <v>178</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -3030,20 +3029,20 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>83</v>
@@ -3064,26 +3063,26 @@
         <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>150</v>
@@ -3095,31 +3094,31 @@
         <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>94</v>
@@ -3137,20 +3136,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>83</v>
@@ -3169,26 +3168,26 @@
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
         <v>193</v>
@@ -3200,31 +3199,31 @@
         <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>94</v>
@@ -3242,23 +3241,23 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>198</v>
@@ -3272,62 +3271,62 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>94</v>
@@ -3336,7 +3335,7 @@
         <v>201</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -3345,23 +3344,23 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>203</v>
@@ -3379,62 +3378,62 @@
         <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>94</v>
@@ -3443,7 +3442,7 @@
         <v>208</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -3452,20 +3451,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>83</v>
@@ -3486,26 +3485,26 @@
         <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>214</v>
@@ -3517,31 +3516,31 @@
         <v>216</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>209</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>94</v>
@@ -3559,23 +3558,23 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>219</v>
@@ -3591,62 +3590,62 @@
         <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>94</v>
@@ -3655,7 +3654,7 @@
         <v>223</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -3664,23 +3663,23 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>164</v>
@@ -3694,71 +3693,71 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -3771,19 +3770,19 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>128</v>
@@ -3799,62 +3798,62 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>133</v>
@@ -3863,7 +3862,7 @@
         <v>162</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -3876,13 +3875,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>83</v>
@@ -3906,62 +3905,62 @@
         <v>137</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>133</v>
@@ -3970,7 +3969,7 @@
         <v>125</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -3979,7 +3978,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3989,13 +3988,13 @@
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>237</v>
@@ -4011,50 +4010,50 @@
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>236</v>
@@ -4066,7 +4065,7 @@
         <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>94</v>
@@ -4075,7 +4074,7 @@
         <v>241</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -4084,7 +4083,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4094,13 +4093,13 @@
         <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>237</v>
@@ -4116,50 +4115,50 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>242</v>
@@ -4171,7 +4170,7 @@
         <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>94</v>
@@ -4180,7 +4179,7 @@
         <v>241</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -4189,23 +4188,23 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>237</v>
@@ -4221,62 +4220,62 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>245</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>94</v>
@@ -4285,7 +4284,7 @@
         <v>241</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -4294,20 +4293,20 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>83</v>
@@ -4328,62 +4327,62 @@
         <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>94</v>
@@ -4392,7 +4391,7 @@
         <v>254</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -4401,23 +4400,23 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>256</v>
@@ -4435,62 +4434,62 @@
         <v>260</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>94</v>
@@ -4499,7 +4498,7 @@
         <v>261</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -4508,23 +4507,23 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>219</v>
@@ -4540,62 +4539,62 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>262</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>94</v>
@@ -4604,7 +4603,7 @@
         <v>266</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -4613,23 +4612,23 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>164</v>
@@ -4643,71 +4642,71 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -4720,19 +4719,19 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>128</v>
@@ -4748,62 +4747,62 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>133</v>
@@ -4812,7 +4811,7 @@
         <v>162</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -4825,13 +4824,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -4855,62 +4854,62 @@
         <v>137</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>133</v>
@@ -4919,7 +4918,7 @@
         <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -4928,23 +4927,23 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>102</v>
@@ -4960,26 +4959,26 @@
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>150</v>
@@ -4991,31 +4990,31 @@
         <v>275</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>94</v>
@@ -5024,7 +5023,7 @@
         <v>266</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
@@ -5033,23 +5032,23 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>277</v>
@@ -5063,62 +5062,62 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>276</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>94</v>
@@ -5127,7 +5126,7 @@
         <v>266</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
@@ -5136,23 +5135,23 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>281</v>
@@ -5166,62 +5165,62 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>94</v>
@@ -5230,7 +5229,7 @@
         <v>266</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
@@ -5239,23 +5238,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>281</v>
@@ -5269,62 +5268,62 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>284</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>94</v>
@@ -5333,7 +5332,7 @@
         <v>266</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
@@ -5342,23 +5341,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>164</v>
@@ -5372,62 +5371,62 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>94</v>
@@ -5436,7 +5435,7 @@
         <v>162</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
@@ -5445,23 +5444,23 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>291</v>
@@ -5479,62 +5478,62 @@
         <v>294</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>94</v>
@@ -5543,7 +5542,7 @@
         <v>162</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="296">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -1285,7 +1288,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK40"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1295,42 +1298,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="158.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="84.6796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="68.15625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="68.15625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1445,133 +1448,139 @@
       <c r="AK1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>84</v>
@@ -1585,101 +1594,104 @@
       <c r="M3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>91</v>
@@ -1687,102 +1699,105 @@
       <c r="L4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>97</v>
@@ -1793,101 +1808,104 @@
       <c r="M5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>103</v>
@@ -1898,31 +1916,31 @@
       <c r="M6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>107</v>
@@ -1931,68 +1949,71 @@
         <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>113</v>
@@ -2003,101 +2024,104 @@
       <c r="M7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>121</v>
@@ -2108,101 +2132,104 @@
       <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>129</v>
@@ -2213,208 +2240,214 @@
       <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>141</v>
@@ -2422,107 +2455,110 @@
       <c r="L11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>143</v>
       </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>145</v>
       </c>
+      <c r="AL11" t="s" s="2">
+        <v>146</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>148</v>
@@ -2530,31 +2566,31 @@
       <c r="M12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
         <v>151</v>
@@ -2563,68 +2599,71 @@
         <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>154</v>
       </c>
+      <c r="AL12" t="s" s="2">
+        <v>155</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>157</v>
@@ -2635,101 +2674,104 @@
       <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="Y13" t="s" s="2">
         <v>161</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>165</v>
@@ -2740,104 +2782,107 @@
       <c r="M14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>171</v>
@@ -2849,209 +2894,215 @@
         <v>173</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>75</v>
+      <c r="AL15" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>181</v>
@@ -3063,99 +3114,102 @@
         <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
         <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>187</v>
       </c>
+      <c r="AL17" t="s" s="2">
+        <v>188</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>190</v>
@@ -3166,31 +3220,31 @@
       <c r="M18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
         <v>194</v>
@@ -3199,68 +3253,71 @@
         <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>199</v>
@@ -3268,102 +3325,105 @@
       <c r="L19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>204</v>
@@ -3378,102 +3438,105 @@
         <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>211</v>
@@ -3485,29 +3548,29 @@
         <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
         <v>215</v>
@@ -3516,68 +3579,71 @@
         <v>216</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>220</v>
@@ -3585,419 +3651,431 @@
       <c r="L22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>222</v>
       </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>75</v>
+        <v>224</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>238</v>
@@ -4008,311 +4086,320 @@
       <c r="M26" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>75</v>
+        <v>242</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>75</v>
+      <c r="AL27" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>75</v>
+        <v>242</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>250</v>
@@ -4327,99 +4414,102 @@
         <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>254</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>257</v>
@@ -4434,102 +4524,105 @@
         <v>260</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>261</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>264</v>
@@ -4537,419 +4630,431 @@
       <c r="M31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M32" s="2"/>
+      <c r="M32" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>271</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>272</v>
@@ -4957,101 +5062,104 @@
       <c r="M35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="Y35" t="s" s="2">
         <v>275</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>278</v>
@@ -5059,102 +5167,105 @@
       <c r="L36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>282</v>
@@ -5162,308 +5273,317 @@
       <c r="L37" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M38" s="2"/>
+      <c r="M38" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M39" s="2"/>
+      <c r="M39" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>292</v>
@@ -5472,77 +5592,80 @@
         <v>293</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="297">
   <si>
     <t>Property</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>物理的な場所の詳細情報と位置情報</t>
@@ -1480,13 +1484,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1552,7 +1556,7 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>76</v>
@@ -1560,10 +1564,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1574,7 +1578,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1583,19 +1587,19 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1645,13 +1649,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1668,10 +1672,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1682,7 +1686,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>76</v>
@@ -1691,16 +1695,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1751,19 +1755,19 @@
         <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -1774,10 +1778,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1788,28 +1792,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1859,19 +1863,19 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -1882,10 +1886,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1896,7 +1900,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -1908,16 +1912,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1943,13 +1947,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -1967,19 +1971,19 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -1990,21 +1994,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2016,16 +2020,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2075,22 +2079,22 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>76</v>
@@ -2098,14 +2102,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2124,16 +2128,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2183,7 +2187,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2198,7 +2202,7 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -2206,14 +2210,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2232,16 +2236,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2291,7 +2295,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2303,10 +2307,10 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2314,14 +2318,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2334,25 +2338,25 @@
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2401,7 +2405,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2413,10 +2417,10 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -2424,10 +2428,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2447,20 +2451,20 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2509,7 +2513,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2521,21 +2525,21 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2546,28 +2550,28 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2593,13 +2597,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2617,33 +2621,33 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2654,7 +2658,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2663,19 +2667,19 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2701,13 +2705,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -2725,33 +2729,33 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2762,7 +2766,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2771,19 +2775,19 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2833,22 +2837,22 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -2856,10 +2860,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2882,19 +2886,19 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -2943,7 +2947,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2955,10 +2959,10 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -2966,10 +2970,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2980,7 +2984,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -2989,22 +2993,22 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3053,22 +3057,22 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3076,10 +3080,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3090,7 +3094,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3099,22 +3103,22 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3139,13 +3143,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3163,33 +3167,33 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3209,19 +3213,19 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3247,13 +3251,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3271,7 +3275,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3283,21 +3287,21 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3320,13 +3324,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3377,7 +3381,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3389,10 +3393,10 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3400,10 +3404,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3414,7 +3418,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3426,19 +3430,19 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3487,22 +3491,22 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3510,10 +3514,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3524,7 +3528,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3533,22 +3537,22 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3573,13 +3577,13 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -3597,33 +3601,33 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3634,7 +3638,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3646,17 +3650,17 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3705,22 +3709,22 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -3728,10 +3732,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3742,7 +3746,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -3754,13 +3758,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3811,13 +3815,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -3826,7 +3830,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3834,14 +3838,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3860,16 +3864,16 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3919,7 +3923,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3931,10 +3935,10 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -3942,14 +3946,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3962,25 +3966,25 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4029,7 +4033,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4041,10 +4045,10 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4052,10 +4056,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4063,10 +4067,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4078,16 +4082,16 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4137,22 +4141,22 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4160,10 +4164,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4171,10 +4175,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4186,16 +4190,16 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4245,22 +4249,22 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4268,10 +4272,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4282,7 +4286,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4294,16 +4298,16 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4353,22 +4357,22 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4376,10 +4380,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4390,7 +4394,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4399,22 +4403,22 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4463,22 +4467,22 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4486,10 +4490,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4500,7 +4504,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4512,19 +4516,19 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4573,22 +4577,22 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4596,10 +4600,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4622,16 +4626,16 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4681,7 +4685,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4693,10 +4697,10 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4704,10 +4708,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4718,7 +4722,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -4730,13 +4734,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4787,13 +4791,13 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
@@ -4802,7 +4806,7 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4810,14 +4814,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4836,16 +4840,16 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4895,7 +4899,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -4907,10 +4911,10 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4918,14 +4922,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4938,25 +4942,25 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5005,7 +5009,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5017,10 +5021,10 @@
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5028,10 +5032,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5054,16 +5058,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5089,13 +5093,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5113,7 +5117,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5125,10 +5129,10 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5136,10 +5140,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5150,7 +5154,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5162,13 +5166,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5219,22 +5223,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5242,10 +5246,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5256,7 +5260,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5268,13 +5272,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5325,22 +5329,22 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5348,10 +5352,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5362,7 +5366,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5374,13 +5378,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5431,22 +5435,22 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5454,10 +5458,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5468,7 +5472,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5480,13 +5484,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5537,22 +5541,22 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5560,10 +5564,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5586,19 +5590,19 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5647,7 +5651,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5659,10 +5663,10 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="296">
   <si>
     <t>Property</t>
   </si>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>物理的な場所の詳細情報と位置情報</t>
@@ -1484,13 +1480,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1556,7 +1552,7 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>76</v>
@@ -1564,10 +1560,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1578,28 +1574,28 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1649,13 +1645,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1672,10 +1668,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1686,25 +1682,25 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1755,19 +1751,19 @@
         <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -1778,10 +1774,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1792,28 +1788,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1863,19 +1859,19 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -1886,10 +1882,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1900,7 +1896,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -1912,16 +1908,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1947,43 +1943,43 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -1994,21 +1990,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2020,16 +2016,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2079,22 +2075,22 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>76</v>
@@ -2102,14 +2098,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2128,16 +2124,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2187,7 +2183,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2202,7 +2198,7 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -2210,14 +2206,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2236,16 +2232,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2295,7 +2291,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2307,10 +2303,10 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2318,14 +2314,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2338,25 +2334,25 @@
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2405,7 +2401,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2417,10 +2413,10 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -2428,10 +2424,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2451,20 +2447,20 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2513,7 +2509,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2525,21 +2521,21 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2550,28 +2546,28 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2597,57 +2593,57 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2658,28 +2654,28 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2705,57 +2701,57 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Z13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="AL13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2766,28 +2762,28 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2837,22 +2833,22 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -2860,10 +2856,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2886,19 +2882,19 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -2947,7 +2943,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2959,10 +2955,10 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -2970,10 +2966,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2984,31 +2980,31 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3057,22 +3053,22 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3080,10 +3076,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3094,31 +3090,31 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3143,57 +3139,57 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3213,19 +3209,19 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3251,14 +3247,14 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3275,7 +3271,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3287,21 +3283,21 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3324,13 +3320,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3381,7 +3377,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3393,10 +3389,10 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3404,10 +3400,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3418,7 +3414,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3430,19 +3426,19 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3491,22 +3487,22 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3514,10 +3510,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3528,31 +3524,31 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3577,57 +3573,57 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="Z21" t="s" s="2">
+      <c r="AA21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3638,7 +3634,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3650,17 +3646,17 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3709,22 +3705,22 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -3732,10 +3728,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3746,7 +3742,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -3758,13 +3754,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3815,13 +3811,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -3830,7 +3826,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3838,14 +3834,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3864,16 +3860,16 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3923,7 +3919,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3935,10 +3931,10 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -3946,14 +3942,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3966,25 +3962,25 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="N25" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4033,7 +4029,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4045,10 +4041,10 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4056,10 +4052,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4067,10 +4063,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4082,16 +4078,16 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4141,22 +4137,22 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4164,10 +4160,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4175,10 +4171,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4190,16 +4186,16 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="N27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4249,22 +4245,22 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4272,10 +4268,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4286,7 +4282,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4298,16 +4294,16 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="N28" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4357,22 +4353,22 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4380,10 +4376,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4394,31 +4390,31 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4467,22 +4463,22 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4490,10 +4486,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4504,7 +4500,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4516,19 +4512,19 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4577,22 +4573,22 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4600,10 +4596,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4626,16 +4622,16 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4685,7 +4681,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4697,10 +4693,10 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4708,10 +4704,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4722,7 +4718,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -4734,13 +4730,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4791,13 +4787,13 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
@@ -4806,7 +4802,7 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4814,14 +4810,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4840,16 +4836,16 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4899,7 +4895,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -4911,10 +4907,10 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4922,14 +4918,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4942,25 +4938,25 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="N34" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5009,7 +5005,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5021,10 +5017,10 @@
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5032,10 +5028,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5058,16 +5054,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5093,14 +5089,14 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5117,7 +5113,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5129,10 +5125,10 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5140,10 +5136,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5154,7 +5150,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5166,13 +5162,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5223,22 +5219,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5246,10 +5242,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5260,7 +5256,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5272,13 +5268,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5329,22 +5325,22 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5352,10 +5348,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5366,7 +5362,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5378,13 +5374,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5435,22 +5431,22 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5458,10 +5454,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5472,7 +5468,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5484,13 +5480,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5541,22 +5537,22 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5564,10 +5560,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5590,19 +5586,19 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5651,7 +5647,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5663,10 +5659,10 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -279,13 +279,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID</t>
+  </si>
+  <si>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -298,16 +298,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>「リソースに関するメタデータ」</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -318,13 +318,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールセット</t>
+  </si>
+  <si>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -337,19 +337,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
+  </si>
+  <si>
+    <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -369,13 +369,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+  </si>
+  <si>
+    <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -395,13 +395,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -421,30 +421,29 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>「リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります」</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -494,7 +493,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Indicates whether the location is still in use.</t>
+    <t>「場所がまだ使用されているかどうかを示します。」(Basho ga mada shiyou sarete iru ka dou ka wo shimeshimasu.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
@@ -524,7 +523,7 @@
 コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照すること。</t>
   </si>
   <si>
-    <t>The operational status if the location (where typically a bed/room).</t>
+    <t>「通常ベッド/部屋が位置する場所の稼働状況」</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
@@ -609,7 +608,7 @@
 スケジュールや順番に場所リソースを使用する場合、特定の場所ではなく場所のクラスを参照できる必要がある。</t>
   </si>
   <si>
-    <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
+    <t>「リソースインスタンスが特定の場所を表すのか、場所のクラスを表すのかを示します。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-mode|4.0.1</t>
@@ -642,7 +641,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Indicates the type of function performed at the location.</t>
+    <t>「場所で行われる機能のタイプを示します。」(Basho de okonawareru kinou no taipu wo shimesu.)</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
@@ -714,7 +713,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Physical form of the location.</t>
+    <t>場所の実体形態。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
@@ -747,10 +746,10 @@
     <t>Location.position.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -759,7 +758,7 @@
     <t>Location.position.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -772,11 +771,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -915,7 +914,7 @@
 FHIR文字列のサイズは1MBを超えてはならないことに注意すること。</t>
   </si>
   <si>
-    <t>The days of the week.</t>
+    <t>曜日 (Youbi)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
@@ -1325,7 +1324,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="259">
   <si>
     <t>Property</t>
   </si>
@@ -127,120 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -1106,10 +992,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1291,7 +1177,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL40"/>
+  <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1302,13 +1188,11 @@
   <cols>
     <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="65.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1316,3638 +1200,3633 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="86.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="68.15625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="16.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
+      <c r="AL1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>189</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>93</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>93</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>235</v>
@@ -4956,719 +4835,609 @@
         <v>236</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>128</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="297">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,120 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -992,10 +1106,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1177,7 +1291,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL39"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1188,11 +1302,13 @@
   <cols>
     <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="65.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1200,3633 +1316,3638 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="86.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="68.15625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
-        <v>38</v>
+      <c r="H1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O10" t="s" s="2">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>151</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>235</v>
@@ -4835,609 +4956,719 @@
         <v>236</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="260">
   <si>
     <t>Property</t>
   </si>
@@ -147,6 +147,10 @@
   <si>
     <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.
 サービスが提供され、リソースとそれに関わる人たちが存在する物理的な場所の詳細情報と位置情報。</t>
+  </si>
+  <si>
+    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -1321,10 +1325,10 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>38</v>
@@ -1332,10 +1336,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1346,7 +1350,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1355,19 +1359,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1417,13 +1421,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1440,10 +1444,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1454,7 +1458,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1463,16 +1467,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1523,19 +1527,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1546,10 +1550,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1560,28 +1564,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1631,19 +1635,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1654,10 +1658,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1668,7 +1672,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1680,16 +1684,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1715,13 +1719,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -1739,19 +1743,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1762,21 +1766,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1788,16 +1792,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1847,22 +1851,22 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>38</v>
@@ -1870,14 +1874,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1896,16 +1900,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1955,7 +1959,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -1970,7 +1974,7 @@
         <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>38</v>
@@ -1978,14 +1982,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2004,16 +2008,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2063,7 +2067,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2075,10 +2079,10 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>38</v>
@@ -2086,14 +2090,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2106,25 +2110,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2173,7 +2177,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2185,10 +2189,10 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>38</v>
@@ -2196,10 +2200,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2219,20 +2223,20 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2281,7 +2285,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2293,21 +2297,21 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2318,28 +2322,28 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2365,13 +2369,13 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>38</v>
@@ -2389,33 +2393,33 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2426,7 +2430,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -2435,19 +2439,19 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2473,13 +2477,13 @@
         <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>38</v>
@@ -2497,33 +2501,33 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2534,7 +2538,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -2543,19 +2547,19 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2605,22 +2609,22 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>38</v>
@@ -2628,10 +2632,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2654,19 +2658,19 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -2715,7 +2719,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -2727,10 +2731,10 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -2738,10 +2742,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2752,7 +2756,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2761,22 +2765,22 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -2825,22 +2829,22 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -2848,10 +2852,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2862,7 +2866,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -2871,22 +2875,22 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -2911,13 +2915,13 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
@@ -2935,33 +2939,33 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2981,19 +2985,19 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3019,13 +3023,13 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>38</v>
@@ -3043,7 +3047,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3055,21 +3059,21 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3092,13 +3096,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3149,7 +3153,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3161,10 +3165,10 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
@@ -3172,10 +3176,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3186,7 +3190,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3198,19 +3202,19 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3259,22 +3263,22 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
@@ -3282,10 +3286,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3296,7 +3300,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3305,22 +3309,22 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -3345,13 +3349,13 @@
         <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>38</v>
@@ -3369,33 +3373,33 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3406,7 +3410,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3418,17 +3422,17 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -3477,22 +3481,22 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
@@ -3500,10 +3504,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3514,7 +3518,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3526,13 +3530,13 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3583,13 +3587,13 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
@@ -3598,7 +3602,7 @@
         <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
@@ -3606,14 +3610,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3632,16 +3636,16 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3691,7 +3695,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -3703,10 +3707,10 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>38</v>
@@ -3714,14 +3718,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3734,25 +3738,25 @@
         <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -3801,7 +3805,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -3813,10 +3817,10 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>38</v>
@@ -3824,10 +3828,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3835,10 +3839,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -3850,16 +3854,16 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3909,22 +3913,22 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>38</v>
@@ -3932,10 +3936,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3943,10 +3947,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -3958,16 +3962,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4017,22 +4021,22 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
@@ -4040,10 +4044,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4054,7 +4058,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4066,16 +4070,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4125,22 +4129,22 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>38</v>
@@ -4148,10 +4152,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4162,7 +4166,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4171,22 +4175,22 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -4235,22 +4239,22 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>38</v>
@@ -4258,10 +4262,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4272,7 +4276,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4284,19 +4288,19 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -4345,22 +4349,22 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>38</v>
@@ -4368,10 +4372,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4394,16 +4398,16 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4453,7 +4457,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4465,10 +4469,10 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>38</v>
@@ -4476,10 +4480,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4490,7 +4494,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -4502,13 +4506,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4559,13 +4563,13 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
@@ -4574,7 +4578,7 @@
         <v>38</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>38</v>
@@ -4582,14 +4586,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4608,16 +4612,16 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4667,7 +4671,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -4679,10 +4683,10 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>38</v>
@@ -4690,14 +4694,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4710,25 +4714,25 @@
         <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -4777,7 +4781,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -4789,10 +4793,10 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
@@ -4800,10 +4804,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4826,16 +4830,16 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4861,13 +4865,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -4885,7 +4889,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -4897,10 +4901,10 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>38</v>
@@ -4908,10 +4912,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4922,7 +4926,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -4934,13 +4938,13 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4991,22 +4995,22 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
@@ -5014,10 +5018,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5028,7 +5032,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5040,13 +5044,13 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5097,22 +5101,22 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>38</v>
@@ -5120,10 +5124,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5134,7 +5138,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5146,13 +5150,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5203,22 +5207,22 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>38</v>
@@ -5226,10 +5230,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5240,7 +5244,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -5252,13 +5256,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5309,22 +5313,22 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>38</v>
@@ -5332,10 +5336,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5358,19 +5362,19 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -5419,7 +5423,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -5431,10 +5435,10 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="256">
   <si>
     <t>Property</t>
   </si>
@@ -145,8 +145,7 @@
     <t>物理的な場所の詳細情報と位置情報</t>
   </si>
   <si>
-    <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.
-サービスが提供され、リソースとそれに関わる人たちが存在する物理的な場所の詳細情報と位置情報。</t>
+    <t>サービスが提供され、リソースとそれに関わる人たちが存在する物理的な場所の詳細情報と位置情報。</t>
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
@@ -349,15 +348,10 @@
 </t>
   </si>
   <si>
-    <t>Unique code or number identifying the location to its users / ユーザに場所を特定する一意のコードまたは番号</t>
-  </si>
-  <si>
-    <t>Unique code or number identifying the location to its users.
-ユーザに場所を特定する一意のコードまたは番号</t>
-  </si>
-  <si>
-    <t>Organization label locations in registries, need to keep track of those.
-登記内の組織ラベルの場所。これらを追跡する必要がある。</t>
+    <t>ユーザに場所を特定する一意のコードまたは番号</t>
+  </si>
+  <si>
+    <t>登記内の組織ラベルの場所。これらを追跡する必要がある。</t>
   </si>
   <si>
     <t>.id</t>
@@ -372,12 +366,10 @@
     <t>active | suspended | inactive / アクティブ|中断|非アクティブ</t>
   </si>
   <si>
-    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.
-statusプロパティは、operationStatus、またはロケーションに構成されている場合はスケジュール/スロットによってカバーされる可能性がある現在の値ではなく、リソースの一般的な可用性をカバーする。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列はサイズが1MBを超えてはならないことに注意すること</t>
+    <t>statusプロパティは、operationStatus、またはロケーションに構成されている場合はスケジュール/スロットによってカバーされる可能性がある現在の値ではなく、リソースの一般的な可用性をカバーする。</t>
+  </si>
+  <si>
+    <t>FHIR文字列はサイズが1MBを超えてはならないことに注意すること</t>
   </si>
   <si>
     <t>required</t>
@@ -402,15 +394,13 @@
 </t>
   </si>
   <si>
-    <t>The operational status of the location (typically only for a bed/room) / ロケーションの運用ステータス（通常、ベッド/部屋のみ）</t>
-  </si>
-  <si>
-    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.
-稼働状況には、ベッドに最も関連する稼働値が含まれる（ただし、隔離ユニット/透析椅子などの部屋/ユニット/椅子などにも適用できる）。これは通常、汚染、ハウスキーピング、およびメンテナンスなどの他のアクティビティなどの概念をカバーしている。</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照すること。</t>
+    <t>ロケーションの運用ステータス（通常、ベッド/部屋のみ）</t>
+  </si>
+  <si>
+    <t>稼働状況には、ベッドに最も関連する稼働値が含まれる（ただし、隔離ユニット/透析椅子などの部屋/ユニット/椅子などにも適用できる）。これは通常、汚染、ハウスキーピング、およびメンテナンスなどの他のアクティビティなどの概念をカバーしている。</t>
+  </si>
+  <si>
+    <t>コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照すること。</t>
   </si>
   <si>
     <t>「通常ベッド/部屋が位置する場所の稼働状況」</t>
@@ -429,15 +419,13 @@
 </t>
   </si>
   <si>
-    <t>Name of the location as used by humans / 人間が使用する場所の名前</t>
-  </si>
-  <si>
-    <t>Name of the location as used by humans. Does not need to be unique.
-人間が使用する場所の名前。一意である必要はない。</t>
-  </si>
-  <si>
-    <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.
-場所の名前が変更された場合は、古い名前をエイリアス列に入力して、検索で検索できるようにすることを検討すべきである。</t>
+    <t>人間が使用する場所の名前</t>
+  </si>
+  <si>
+    <t>人間が使用する場所の名前。一意である必要はない。</t>
+  </si>
+  <si>
+    <t>場所の名前が変更された場合は、古い名前をエイリアス列に入力して、検索で検索できるようにすることを検討すべきである。</t>
   </si>
   <si>
     <t>.name</t>
@@ -446,35 +434,26 @@
     <t>Location.alias</t>
   </si>
   <si>
-    <t>A list of alternate names that the location is known as, or was known as, in the past / その場所が過去に知られていた、または以前から知られていた別名のリスト</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the location is known as, or was known as, in the past.
-その場所が過去に知られていた、または以前から知られていた別名のリスト</t>
-  </si>
-  <si>
-    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the location.
-エイリアス/歴史的な名前に関連付けられた日付はない。これは、名前がいつ使用されたかを追跡するためではなく、古い名前でも場所を特定できるように検索を支援するためのものである。</t>
-  </si>
-  <si>
-    <t>Over time locations and organizations go through many changes and can be known by different names.
-For searching knowing previous names that the location was known by can be very useful.
-「時間の経過とともに、場所や組織は多くの変化を遂げ、さまざまな名前で知られるようになる。
+    <t>その場所が過去に知られていた、または以前から知られていた別名のリスト</t>
+  </si>
+  <si>
+    <t>エイリアス/歴史的な名前に関連付けられた日付はない。これは、名前がいつ使用されたかを追跡するためではなく、古い名前でも場所を特定できるように検索を支援するためのものである。</t>
+  </si>
+  <si>
+    <t>「時間の経過とともに、場所や組織は多くの変化を遂げ、さまざまな名前で知られるようになる。
 場所が知られている以前の名前を知っていることを検索することは非常に役に立つ。」</t>
   </si>
   <si>
     <t>Location.description</t>
   </si>
   <si>
-    <t>Additional details about the location that could be displayed as further information to identify the location beyond its name / 名前以外の場所を識別するための詳細情報として表示できる場所に関する追加の詳細</t>
-  </si>
-  <si>
-    <t>Description of the Location, which helps in finding or referencing the place.
-場所の説明。場所の検索や参照に役立つ。</t>
-  </si>
-  <si>
-    <t>Humans need additional information to verify a correct location has been identified.
-人間は、正しい場所が特定されたことを確認するために追加情報を必要とする。</t>
+    <t>名前以外の場所を識別するための詳細情報として表示できる場所に関する追加の詳細</t>
+  </si>
+  <si>
+    <t>場所の説明。場所の検索や参照に役立つ。</t>
+  </si>
+  <si>
+    <t>人間は、正しい場所が特定されたことを確認するために追加情報を必要とする。</t>
   </si>
   <si>
     <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
@@ -486,16 +465,13 @@
     <t>instance | kind / インスタンス|種類</t>
   </si>
   <si>
-    <t>Indicates whether a resource instance represents a specific location or a class of locations.
-リソースインスタンスが特定の場所を表すか、場所のクラスを表すかを示す。</t>
-  </si>
-  <si>
-    <t>This is labeled as a modifier because whether or not the location is a class of locations changes how it can be used and understood.
-ロケーションがロケーションのクラスであるかどうかによって、その使用方法と理解方法が変わるため、これは修飾子としてラベル付けされる。</t>
-  </si>
-  <si>
-    <t>When using a Location resource for scheduling or orders, we need to be able to refer to a class of Locations instead of a specific Location.
-スケジュールや順番に場所リソースを使用する場合、特定の場所ではなく場所のクラスを参照できる必要がある。</t>
+    <t>リソースインスタンスが特定の場所を表すか、場所のクラスを表すかを示す。</t>
+  </si>
+  <si>
+    <t>ロケーションがロケーションのクラスであるかどうかによって、その使用方法と理解方法が変わるため、これは修飾子としてラベル付けされる。</t>
+  </si>
+  <si>
+    <t>スケジュールや順番に場所リソースを使用する場合、特定の場所ではなく場所のクラスを参照できる必要がある。</t>
   </si>
   <si>
     <t>「リソースインスタンスが特定の場所を表すのか、場所のクラスを表すのかを示します。」</t>
@@ -517,15 +493,13 @@
 </t>
   </si>
   <si>
-    <t>Type of function performed / 実行される機能のタイプ</t>
-  </si>
-  <si>
-    <t>Indicates the type of function performed at the location.
-その場所で実行される機能のタイプを示す。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべての用語の使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と前後の調整間の関係を管理するための独自の構造を提供する必要がある。</t>
+    <t>実行される機能のタイプ</t>
+  </si>
+  <si>
+    <t>その場所で実行される機能のタイプを示す。</t>
+  </si>
+  <si>
+    <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と前後の調整間の関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>extensible</t>
@@ -547,11 +521,10 @@
 </t>
   </si>
   <si>
-    <t>Contact details of the location / 所在地の連絡先</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.
-その場所で利用可能な通信機器の連絡先。これには、電話番号、ファックス番号、携帯電話番号、電子メールアドレス、ウェブサイトなどが含まれる。</t>
+    <t>所在地の連絡先</t>
+  </si>
+  <si>
+    <t>その場所で利用可能な通信機器の連絡先。これには、電話番号、ファックス番号、携帯電話番号、電子メールアドレス、ウェブサイトなどが含まれる。</t>
   </si>
   <si>
     <t>.telecom</t>
@@ -564,19 +537,16 @@
 </t>
   </si>
   <si>
-    <t>Physical location / 物理的な場所</t>
-  </si>
-  <si>
-    <t>Physical location.
-物理的な場所。</t>
-  </si>
-  <si>
-    <t>Additional addresses should be recorded using another instance of the Location resource, or via the Organization.
-追加のアドレスは、Location リソースの別のインスタンスを使用して記録するか、Organization を介して記録する必要がある。</t>
-  </si>
-  <si>
-    <t>If locations can be visited, we need to keep track of their address.
-場所が訪問できる場合は、住所を把握しておく必要がある。</t>
+    <t>物理的な場所</t>
+  </si>
+  <si>
+    <t>物理的な場所。</t>
+  </si>
+  <si>
+    <t>追加のアドレスは、Location リソースの別のインスタンスを使用して記録するか、Organization を介して記録する必要がある。</t>
+  </si>
+  <si>
+    <t>場所が訪問できる場合は、住所を把握しておく必要がある。</t>
   </si>
   <si>
     <t>.addr</t>
@@ -585,19 +555,16 @@
     <t>Location.physicalType</t>
   </si>
   <si>
-    <t>Physical form of the location / 場所の物理的な形態</t>
-  </si>
-  <si>
-    <t>Physical form of the location, e.g. building, room, vehicle, road.
-場所の物理的な形、例えば建物、部屋、車両、道路。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべての用語の使用がこの一般的なパターンに適合するわけではない。いくつかのケースでは、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係、および前後の調整を管理するための独自の構造を提供することが望ましい。</t>
-  </si>
-  <si>
-    <t>For purposes of showing relevant locations in queries, we need to categorize locations.
-クエリで関連する場所を表示するためには、場所を分類する必要がある。</t>
+    <t>場所の物理的な形態</t>
+  </si>
+  <si>
+    <t>場所の物理的な形、例えば建物、部屋、車両、道路。</t>
+  </si>
+  <si>
+    <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。いくつかのケースでは、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係、および前後の調整を管理するための独自の構造を提供することが望ましい。</t>
+  </si>
+  <si>
+    <t>クエリで関連する場所を表示するためには、場所を分類する必要がある。</t>
   </si>
   <si>
     <t>example</t>
@@ -619,15 +586,13 @@
 </t>
   </si>
   <si>
-    <t>The absolute geographic location / 絶対的な地理的位置</t>
-  </si>
-  <si>
-    <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).
-WGS84 データム（KML で使用されている座標系と同じ）を用いて表現された Location の絶対地理的位置。</t>
-  </si>
-  <si>
-    <t>For mobile applications and automated route-finding knowing the exact location of the Location is required.
-モバイルアプリケーションや自動化されたルート検索では、位置情報の正確な位置を知る必要がある。</t>
+    <t>絶対的な地理的位置</t>
+  </si>
+  <si>
+    <t>WGS84 データム（KML で使用されている座標系と同じ）を用いて表現された Location の絶対地理的位置。</t>
+  </si>
+  <si>
+    <t>モバイルアプリケーションや自動化されたルート検索では、位置情報の正確な位置を知る必要がある。</t>
   </si>
   <si>
     <t>.playingEntity [classCode=PLC determinerCode=INSTANCE].positionText</t>
@@ -678,15 +643,13 @@
 </t>
   </si>
   <si>
-    <t>Longitude with WGS84 datum / WGS84データの経度</t>
-  </si>
-  <si>
-    <t>Longitude. The value domain and the interpretation are the same as for the text of the longitude element in KML (see notes below).
-経度。値の領域及び解釈は、KML の longitude 要素のテキストと同様である（後述）。</t>
-  </si>
-  <si>
-    <t>Do not use an IEEE type floating point type, instead use something that works like a true decimal, with inbuilt precision (e.g. Java BigInteger)
-IEEE型の浮動小数点型は使用せず、真の10進数のように動作し、精度が組み込まれているものを使用すること（例：JavaのBigInteger）。</t>
+    <t>WGS84データの経度</t>
+  </si>
+  <si>
+    <t>経度。値の領域及び解釈は、KML の longitude 要素のテキストと同様である（後述）。</t>
+  </si>
+  <si>
+    <t>IEEE型の浮動小数点型は使用せず、真の10進数のように動作し、精度が組み込まれているものを使用すること（例：JavaのBigInteger）。</t>
   </si>
   <si>
     <t>(RIM Opted not to map the sub-elements of GPS location, is now an OBS)</t>
@@ -695,21 +658,19 @@
     <t>Location.position.latitude</t>
   </si>
   <si>
-    <t>Latitude with WGS84 datum / WGS84データの緯度</t>
-  </si>
-  <si>
-    <t>Latitude. The value domain and the interpretation are the same as for the text of the latitude element in KML (see notes below).
-緯度。値領域及び解釈は、KML の latitude 要素のテキストと同様である（後述）。</t>
+    <t>WGS84データの緯度</t>
+  </si>
+  <si>
+    <t>緯度。値領域及び解釈は、KML の latitude 要素のテキストと同様である（後述）。</t>
   </si>
   <si>
     <t>Location.position.altitude</t>
   </si>
   <si>
-    <t>Altitude with WGS84 datum / WGS84データによる高度</t>
-  </si>
-  <si>
-    <t>Altitude. The value domain and the interpretation are the same as for the text of the altitude element in KML (see notes below).
-高度。値領域及び解釈は、KML の altitude 要素のテキストと同様である（後述）。</t>
+    <t>WGS84データによる高度</t>
+  </si>
+  <si>
+    <t>高度。値領域及び解釈は、KML の altitude 要素のテキストと同様である（後述）。</t>
   </si>
   <si>
     <t>Location.managingOrganization</t>
@@ -719,19 +680,16 @@
 </t>
   </si>
   <si>
-    <t>Organization responsible for provisioning and upkeep / プロビジョニングと維持管理を担当する組織</t>
-  </si>
-  <si>
-    <t>The organization responsible for the provisioning and upkeep of the location.
-場所のプロビジョニングと維持管理を担当する組織。</t>
-  </si>
-  <si>
-    <t>This can also be used as the part of the organization hierarchy where this location provides services. These services can be defined through the HealthcareService resource.
-これは、この場所がサービスを提供する組織階層の一部として使用することもできる。これらのサービスは、HealthcareServiceリソースを介して定義することができる。</t>
-  </si>
-  <si>
-    <t>Need to know who manages the location.
-場所を管理している人を知る必要がある。</t>
+    <t>プロビジョニングと維持管理を担当する組織</t>
+  </si>
+  <si>
+    <t>場所のプロビジョニングと維持管理を担当する組織。</t>
+  </si>
+  <si>
+    <t>これは、この場所がサービスを提供する組織階層の一部として使用することもできる。これらのサービスは、HealthcareServiceリソースを介して定義することができる。</t>
+  </si>
+  <si>
+    <t>場所を管理している人を知る必要がある。</t>
   </si>
   <si>
     <t>.scopingEntity[classCode=ORG determinerKind=INSTANCE]</t>
@@ -744,19 +702,16 @@
 </t>
   </si>
   <si>
-    <t>Another Location this one is physically a part of / この場所が物理的に存在するもう一つの場所</t>
-  </si>
-  <si>
-    <t>Another Location of which this Location is physically a part of.
-この場所が物理的に存在するもう一つの場所。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
-  </si>
-  <si>
-    <t>For purposes of location, display and identification, knowing which locations are located within other locations is important.
-位置情報、表示、識別のためには、他のどの場所の内部にどの場所があるかを知ることが重要である。</t>
+    <t>この場所が物理的に存在するもう一つの場所</t>
+  </si>
+  <si>
+    <t>この場所が物理的に存在するもう一つの場所。</t>
+  </si>
+  <si>
+    <t>参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+  </si>
+  <si>
+    <t>位置情報、表示、識別のためには、他のどの場所の内部にどの場所があるかを知ることが重要である。</t>
   </si>
   <si>
     <t>.inboundLink[typeCode=PART].source[classCode=SDLC]</t>
@@ -765,16 +720,13 @@
     <t>Location.hoursOfOperation</t>
   </si>
   <si>
-    <t>What days/times during a week is this location usually open / この場所は通常、1週間のうち何日/時間帯に営業している</t>
-  </si>
-  <si>
-    <t>What days/times during a week is this location usually open.
-この場所が週に何日あるいは何時間オープンしているか。</t>
-  </si>
-  <si>
-    <t>This type of information is commonly found published in directories and on websites informing customers when the facility is available.
-Specific services within the location may have their own hours which could be shorter (or longer) than the locations hours.
-この種の情報は、一般的にディレクトリやウェブサイトに掲載されており、施設が利用可能な時間帯を顧客に通知している。
+    <t>この場所は通常、1週間のうち何日/時間帯に営業している</t>
+  </si>
+  <si>
+    <t>この場所が週に何日あるいは何時間オープンしているか。</t>
+  </si>
+  <si>
+    <t>この種の情報は、一般的にディレクトリやウェブサイトに掲載されており、施設が利用可能な時間帯を顧客に通知している。
 その場所の特定のサービスは、その場所の時間よりも短い（または長い）独自の時間を持っている場合がある。</t>
   </si>
   <si>
@@ -796,12 +748,10 @@
     <t>mon | tue | wed | thu | fri | sat | sun / 月｜火｜水｜木｜金｜土｜日</t>
   </si>
   <si>
-    <t>Indicates which days of the week are available between the start and end Times.
-開始時刻と終了時刻の間に利用可能な曜日を示す。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列のサイズは1MBを超えてはならないことに注意すること。</t>
+    <t>開始時刻と終了時刻の間に利用可能な曜日を示す。</t>
+  </si>
+  <si>
+    <t>FHIR文字列のサイズは1MBを超えてはならないことに注意すること。</t>
   </si>
   <si>
     <t>曜日 (Youbi)</t>
@@ -817,11 +767,10 @@
 </t>
   </si>
   <si>
-    <t>The Location is open all day / その場所は終日営業している</t>
-  </si>
-  <si>
-    <t>The Location is open all day.
-その場所は終日営業している。</t>
+    <t>その場所は終日営業している</t>
+  </si>
+  <si>
+    <t>その場所は終日営業している。</t>
   </si>
   <si>
     <t>Location.hoursOfOperation.openingTime</t>
@@ -831,31 +780,22 @@
 </t>
   </si>
   <si>
-    <t>Time that the Location opens / 場所が開く時間</t>
-  </si>
-  <si>
-    <t>Time that the Location opens.
-場所が開く時間</t>
+    <t>場所が開く時間</t>
   </si>
   <si>
     <t>Location.hoursOfOperation.closingTime</t>
   </si>
   <si>
-    <t>Time that the Location closes / 場所が閉まる時間</t>
-  </si>
-  <si>
-    <t>Time that the Location closes.
-場所が閉まる時間</t>
+    <t>場所が閉まる時間</t>
   </si>
   <si>
     <t>Location.availabilityExceptions</t>
   </si>
   <si>
-    <t>Description of availability exceptions / 利用可能の例外についての説明</t>
-  </si>
-  <si>
-    <t>A description of when the locations opening ours are different to normal, e.g. public holiday availability. Succinctly describing all possible exceptions to normal site availability as detailed in the opening hours Times.
-場所が私たちのものを開くときの説明は、通常、例えば、祝日の可用性とは異なる。
+    <t>利用可能の例外についての説明</t>
+  </si>
+  <si>
+    <t>場所が私たちのものを開くときの説明は、通常、例えば、祝日の可用性とは異なる。
 営業時間に詳細な通常のサイトの利用可能性のすべての可能性のある例外を簡潔に説明する。</t>
   </si>
   <si>
@@ -866,15 +806,13 @@
 </t>
   </si>
   <si>
-    <t>Technical endpoints providing access to services operated for the location / 場所のために運営されているサービスへのアクセスを提供する技術的なエンドポイント</t>
-  </si>
-  <si>
-    <t>Technical endpoints providing access to services operated for the location.
-場所のために運営されているサービスへのアクセスを提供する技術的なエンドポイント。</t>
-  </si>
-  <si>
-    <t>Organizations may have different systems at different locations that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.
-組織は、さまざまなサービスを提供するさまざまな場所に異なるシステムを持っている可能性があり、それらに接続する方法や目的のための技術的な接続の詳細を定義できる必要がある。</t>
+    <t>場所のために運営されているサービスへのアクセスを提供する技術的なエンドポイント</t>
+  </si>
+  <si>
+    <t>場所のために運営されているサービスへのアクセスを提供する技術的なエンドポイント。</t>
+  </si>
+  <si>
+    <t>組織は、さまざまなサービスを提供するさまざまな場所に異なるシステムを持っている可能性があり、それらに接続する方法や目的のための技術的な接続の詳細を定義できる必要がある。</t>
   </si>
 </sst>
 </file>
@@ -2232,11 +2170,11 @@
         <v>106</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2300,18 +2238,18 @@
         <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2337,13 +2275,13 @@
         <v>67</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2369,14 +2307,14 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AA11" t="s" s="2">
         <v>38</v>
       </c>
@@ -2393,7 +2331,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2408,18 +2346,18 @@
         <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2442,16 +2380,16 @@
         <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2480,11 +2418,11 @@
         <v>71</v>
       </c>
       <c r="Y12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="Z12" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="AA12" t="s" s="2">
         <v>38</v>
       </c>
@@ -2501,7 +2439,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -2516,18 +2454,18 @@
         <v>59</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2550,16 +2488,16 @@
         <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2609,7 +2547,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -2624,7 +2562,7 @@
         <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>38</v>
@@ -2632,10 +2570,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2658,19 +2596,19 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -2719,7 +2657,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -2734,7 +2672,7 @@
         <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -2742,10 +2680,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2768,19 +2706,19 @@
         <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -2829,7 +2767,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -2844,7 +2782,7 @@
         <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -2852,10 +2790,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2881,16 +2819,16 @@
         <v>67</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -2915,13 +2853,13 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
@@ -2939,7 +2877,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -2954,18 +2892,18 @@
         <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2988,16 +2926,16 @@
         <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3023,14 +2961,14 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>38</v>
       </c>
@@ -3047,7 +2985,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3062,18 +3000,18 @@
         <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3096,13 +3034,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3153,7 +3091,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3168,7 +3106,7 @@
         <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
@@ -3176,10 +3114,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3202,19 +3140,19 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3263,7 +3201,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3278,7 +3216,7 @@
         <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
@@ -3286,10 +3224,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3312,19 +3250,19 @@
         <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -3349,14 +3287,14 @@
         <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Z20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AA20" t="s" s="2">
         <v>38</v>
       </c>
@@ -3373,7 +3311,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3388,18 +3326,18 @@
         <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3422,17 +3360,17 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -3481,7 +3419,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -3496,7 +3434,7 @@
         <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
@@ -3504,10 +3442,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3530,13 +3468,13 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3587,7 +3525,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -3602,7 +3540,7 @@
         <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
@@ -3610,10 +3548,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3642,7 +3580,7 @@
         <v>94</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>96</v>
@@ -3695,7 +3633,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -3710,7 +3648,7 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>38</v>
@@ -3718,14 +3656,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3747,10 +3685,10 @@
         <v>93</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>96</v>
@@ -3805,7 +3743,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -3828,10 +3766,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3854,16 +3792,16 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3913,7 +3851,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>47</v>
@@ -3928,7 +3866,7 @@
         <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>38</v>
@@ -3936,10 +3874,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3962,16 +3900,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4021,7 +3959,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>47</v>
@@ -4036,7 +3974,7 @@
         <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
@@ -4044,10 +3982,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4070,16 +4008,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4129,7 +4067,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4144,7 +4082,7 @@
         <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>38</v>
@@ -4152,10 +4090,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4178,19 +4116,19 @@
         <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -4239,7 +4177,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4254,7 +4192,7 @@
         <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>38</v>
@@ -4262,10 +4200,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4288,19 +4226,19 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -4349,7 +4287,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4364,7 +4302,7 @@
         <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>38</v>
@@ -4372,10 +4310,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4398,16 +4336,16 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4457,7 +4395,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4472,7 +4410,7 @@
         <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>38</v>
@@ -4480,10 +4418,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4506,13 +4444,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4563,7 +4501,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -4578,7 +4516,7 @@
         <v>38</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>38</v>
@@ -4586,10 +4524,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4618,7 +4556,7 @@
         <v>94</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>96</v>
@@ -4671,7 +4609,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -4686,7 +4624,7 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>38</v>
@@ -4694,14 +4632,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4723,10 +4661,10 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>96</v>
@@ -4781,7 +4719,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -4804,10 +4742,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4833,13 +4771,13 @@
         <v>67</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4865,13 +4803,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -4889,7 +4827,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -4904,7 +4842,7 @@
         <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>38</v>
@@ -4912,10 +4850,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4938,13 +4876,13 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4995,7 +4933,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5010,7 +4948,7 @@
         <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
@@ -5018,10 +4956,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5044,13 +4982,13 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5101,7 +5039,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5116,7 +5054,7 @@
         <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>38</v>
@@ -5124,10 +5062,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5150,13 +5088,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5207,7 +5145,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5222,7 +5160,7 @@
         <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>38</v>
@@ -5230,10 +5168,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5256,13 +5194,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5313,7 +5251,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5328,7 +5266,7 @@
         <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>38</v>
@@ -5336,10 +5274,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5362,19 +5300,19 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -5423,7 +5361,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -5438,7 +5376,7 @@
         <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -149,7 +149,7 @@
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -171,10 +171,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
-  </si>
-  <si>
-    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
+    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -187,7 +187,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースに関するメタデータ」</t>
+    <t>リソースに関するメタデータ</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -210,7 +210,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -229,7 +229,7 @@
     <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
   </si>
   <si>
-    <t>「リソースが書かれている基本言語。」</t>
+    <t>リソースが書かれている基本言語。</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -258,10 +258,10 @@
 </t>
   </si>
   <si>
-    <t>「人間の解釈のためのリソースのテキスト要約」</t>
-  </si>
-  <si>
-    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+    <t>人間の解釈のためのリソースのテキスト要約</t>
+  </si>
+  <si>
+    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -287,10 +287,10 @@
     <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
   </si>
   <si>
-    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
-  </si>
-  <si>
-    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
+    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
+  </si>
+  <si>
+    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -313,7 +313,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>「リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります」</t>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -323,7 +323,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
@@ -332,7 +332,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -403,7 +403,7 @@
     <t>コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照すること。</t>
   </si>
   <si>
-    <t>「通常ベッド/部屋が位置する場所の稼働状況」</t>
+    <t>通常ベッド/部屋が位置する場所の稼働状況</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
@@ -474,7 +474,7 @@
     <t>スケジュールや順番に場所リソースを使用する場合、特定の場所ではなく場所のクラスを参照できる必要がある。</t>
   </si>
   <si>
-    <t>「リソースインスタンスが特定の場所を表すのか、場所のクラスを表すのかを示します。」</t>
+    <t>リソースインスタンスが特定の場所を表すのか、場所のクラスを表すのかを示します。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-mode|4.0.1</t>
@@ -613,7 +613,7 @@
     <t>Location.position.extension</t>
   </si>
   <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -626,11 +626,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
-  </si>
-  <si>
-    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
+    <t>認識されなくても無視できない拡張機能</t>
+  </si>
+  <si>
+    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -440,7 +440,7 @@
     <t>エイリアス/歴史的な名前に関連付けられた日付はない。これは、名前がいつ使用されたかを追跡するためではなく、古い名前でも場所を特定できるように検索を支援するためのものである。</t>
   </si>
   <si>
-    <t>「時間の経過とともに、場所や組織は多くの変化を遂げ、さまざまな名前で知られるようになる。
+    <t>「時間の経過とともに、場所や組織は多くの変化を遂げ、さまざまな名前で知られるようになる。  
 場所が知られている以前の名前を知っていることを検索することは非常に役に立つ。」</t>
   </si>
   <si>
@@ -726,7 +726,7 @@
     <t>この場所が週に何日あるいは何時間オープンしているか。</t>
   </si>
   <si>
-    <t>この種の情報は、一般的にディレクトリやウェブサイトに掲載されており、施設が利用可能な時間帯を顧客に通知している。
+    <t>この種の情報は、一般的にディレクトリやウェブサイトに掲載されており、施設が利用可能な時間帯を顧客に通知している。  
 その場所の特定のサービスは、その場所の時間よりも短い（または長い）独自の時間を持っている場合がある。</t>
   </si>
   <si>
@@ -795,7 +795,7 @@
     <t>利用可能の例外についての説明</t>
   </si>
   <si>
-    <t>場所が私たちのものを開くときの説明は、通常、例えば、祝日の可用性とは異なる。
+    <t>場所が私たちのものを開くときの説明は、通常、例えば、祝日の可用性とは異なる。  
 営業時間に詳細な通常のサイトの利用可能性のすべての可能性のある例外を簡潔に説明する。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="294">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,120 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -1119,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL39"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1130,11 +1244,13 @@
   <cols>
     <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="65.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1142,572 +1258,579 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="86.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="68.15625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
-        <v>38</v>
+      <c r="I1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1715,3060 +1838,3058 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O10" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>150</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>182</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>234</v>
@@ -4777,609 +4898,719 @@
         <v>235</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>128</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="256">
   <si>
     <t>Property</t>
   </si>
@@ -127,120 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -1233,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL40"/>
+  <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1244,13 +1130,11 @@
   <cols>
     <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="65.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1258,579 +1142,572 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="86.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="68.15625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="16.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
+      <c r="AL1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1838,3058 +1715,3060 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>257</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>126</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>234</v>
@@ -4898,719 +4777,609 @@
         <v>235</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>267</v>
+        <v>126</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -226,7 +226,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -238,7 +238,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -284,7 +284,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -375,7 +375,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>「場所がまだ使用されているかどうかを示します。」(Basho ga mada shiyou sarete iru ka dou ka wo shimeshimasu.)</t>
+    <t>「場所がまだ使用されているかどうかを示します。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
@@ -505,7 +505,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>「場所で行われる機能のタイプを示します。」(Basho de okonawareru kinou no taipu wo shimesu.)</t>
+    <t>「場所で行われる機能のタイプを示します。」</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
@@ -1149,7 +1149,7 @@
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="86.25390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="294">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,120 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -1119,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL39"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1130,11 +1244,13 @@
   <cols>
     <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="65.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1142,572 +1258,579 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="43.953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="68.15625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
-        <v>38</v>
+      <c r="I1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1715,3060 +1838,3058 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O10" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>150</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>182</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>234</v>
@@ -4777,609 +4898,719 @@
         <v>235</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>128</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-location.xlsx
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -285,10 +285,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -301,7 +301,7 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ</t>
+    <t>「リソースに関するメタデータ」</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -324,7 +324,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -340,10 +340,10 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -352,7 +352,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -372,10 +372,10 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト要約</t>
-  </si>
-  <si>
-    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -398,13 +398,13 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」</t>
-  </si>
-  <si>
-    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
-  </si>
-  <si>
-    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -427,7 +427,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります</t>
+    <t>「リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります」</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -437,7 +437,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
@@ -446,7 +446,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -489,7 +489,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>「場所がまだ使用されているかどうかを示します。」</t>
+    <t>「場所がまだ使用されているかどうかを示します。」(Basho ga mada shiyou sarete iru ka dou ka wo shimeshimasu.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
@@ -517,7 +517,7 @@
     <t>コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照すること。</t>
   </si>
   <si>
-    <t>通常ベッド/部屋が位置する場所の稼働状況</t>
+    <t>「通常ベッド/部屋が位置する場所の稼働状況」</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
@@ -588,7 +588,7 @@
     <t>スケジュールや順番に場所リソースを使用する場合、特定の場所ではなく場所のクラスを参照できる必要がある。</t>
   </si>
   <si>
-    <t>リソースインスタンスが特定の場所を表すのか、場所のクラスを表すのかを示します。</t>
+    <t>「リソースインスタンスが特定の場所を表すのか、場所のクラスを表すのかを示します。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-mode|4.0.1</t>
@@ -619,7 +619,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>「場所で行われる機能のタイプを示します。」</t>
+    <t>「場所で行われる機能のタイプを示します。」(Basho de okonawareru kinou no taipu wo shimesu.)</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
@@ -727,7 +727,7 @@
     <t>Location.position.extension</t>
   </si>
   <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -740,11 +740,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されなくても無視できない拡張機能</t>
-  </si>
-  <si>
-    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1266,7 +1266,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
